--- a/output/cv_info.xlsx
+++ b/output/cv_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,14 +448,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>das.ananya016@gmail.com</t>
+          <t>deeptidawani@gmail.com</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
-          <t>9643544185</t>
+          <t>deeptidawani@gmail.com</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/cv_info.xlsx
+++ b/output/cv_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,18 +448,178 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>aarushi.9999218543@gmail.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>999-921-8543</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9999218543</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>akashg2494@gmail.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9310631244</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>akashsharma1894@gmail.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>anamr894@gmail.com</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8586089916</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>das.ananya016@gmail.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9643544185</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8802955934</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>anshultiwari734@gmail.com</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6396164322</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>E-Mailid-bsraorajput@gmail.com</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9024599166</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>kumarchaman83@gmail.com</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9953996291</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kumar.monu111992@gmail.com</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9716910273</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>deeptidawani@gmail.com</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>deeptidawani@gmail.com</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9313653888</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>dguljani@gmail.com</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8005955426</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9782556979</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>gauravkhuranafca@gmail.com</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9034310407</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
